--- a/input_output/model_input_5groups.xlsx
+++ b/input_output/model_input_5groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/MasterV22/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857D34F1-2330-D04E-80AC-9F04081EDAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ECC342-525C-7348-8AD3-4F70C79F1D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="500" windowWidth="21720" windowHeight="19360" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="12680" yWindow="500" windowWidth="21720" windowHeight="19360" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="234">
   <si>
     <t>Wards</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>GO-a</t>
-  </si>
-  <si>
-    <t>EN-b</t>
   </si>
   <si>
     <t>EN-a</t>
@@ -1470,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="CD26" sqref="CD26"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
+      <selection activeCell="CG27" sqref="CG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1495,305 +1492,305 @@
   <sheetData>
     <row r="1" spans="1:111" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>129</v>
-      </c>
       <c r="F1" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AD1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AF1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AG1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AH1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AI1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="21" t="s">
-        <v>71</v>
-      </c>
       <c r="AK1" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL1" s="22"/>
       <c r="AM1" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AP1" s="24"/>
       <c r="AQ1" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AR1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AS1" s="21" t="s">
+      <c r="AT1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AU1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AU1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AV1" s="21" t="s">
+      <c r="AW1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AW1" s="21" t="s">
+      <c r="AX1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" s="21" t="s">
+      <c r="AY1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="AZ1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="BA1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BB1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="BB1" s="21" t="s">
+      <c r="BC1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="BC1" s="21" t="s">
+      <c r="BD1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="BD1" s="21" t="s">
+      <c r="BE1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BF1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="BF1" s="21" t="s">
+      <c r="BG1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="BG1" s="21" t="s">
+      <c r="BH1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="BH1" s="21" t="s">
+      <c r="BI1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="BI1" s="21" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BJ1" s="21" t="s">
+      <c r="BK1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="BK1" s="21" t="s">
+      <c r="BL1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="BL1" s="21" t="s">
+      <c r="BM1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="BM1" s="21" t="s">
+      <c r="BN1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="BN1" s="21" t="s">
+      <c r="BO1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="BO1" s="21" t="s">
+      <c r="BP1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="BP1" s="21" t="s">
+      <c r="BQ1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="BQ1" s="21" t="s">
+      <c r="BR1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="BR1" s="21" t="s">
+      <c r="BS1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="BS1" s="21" t="s">
-        <v>99</v>
-      </c>
       <c r="BT1" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BU1" s="22"/>
       <c r="BV1" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BW1" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BY1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="BZ1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CA1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CB1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CC1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CD1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CE1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CF1" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CG1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CH1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CI1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CK1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CL1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CM1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CN1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CP1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CS1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="CS1" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="CT1" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="CU1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CX1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="DA1" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2116,7 +2113,7 @@
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
       <c r="H3" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="14">
         <v>11</v>
@@ -2315,7 +2312,7 @@
       </c>
       <c r="BX3" s="2"/>
       <c r="BY3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BZ3" s="56">
         <v>0</v>
@@ -4893,7 +4890,7 @@
   <dimension ref="B1:AS8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4913,79 +4910,79 @@
   <sheetData>
     <row r="1" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R1" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="W1" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.2">
@@ -5073,7 +5070,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="33">
         <v>1</v>
@@ -5327,7 +5324,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>13</v>
@@ -5652,7 +5649,7 @@
     </row>
     <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="56">
         <v>0.60347551342812011</v>
@@ -5740,7 +5737,7 @@
   <sheetData>
     <row r="1" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>13</v>
@@ -6180,7 +6177,7 @@
     </row>
     <row r="6" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="56">
         <v>7.4249605055292253E-2</v>
@@ -6906,7 +6903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667ADA00-9768-9E42-A64A-5CCA52F9FA00}">
   <dimension ref="A1:BH144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AM50" workbookViewId="0">
       <selection activeCell="AG70" sqref="AG70:BH70"/>
     </sheetView>
   </sheetViews>
@@ -6917,7 +6914,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>13</v>
@@ -7242,7 +7239,7 @@
     </row>
     <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="56">
         <v>0.60347551342812011</v>
@@ -7415,7 +7412,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7441,10 +7438,10 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="W33" t="s">
+        <v>132</v>
+      </c>
+      <c r="X33" t="s">
         <v>133</v>
-      </c>
-      <c r="X33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.2">
@@ -7829,7 +7826,7 @@
     </row>
     <row r="38" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" si="1"/>
@@ -8013,7 +8010,7 @@
     <row r="43" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="64">
         <f>SUM(B34:B42)</f>
@@ -8098,88 +8095,88 @@
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" t="s">
         <v>136</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>137</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>138</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>139</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>140</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>141</v>
       </c>
-      <c r="H47" t="s">
-        <v>142</v>
-      </c>
       <c r="I47" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" t="s">
         <v>136</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>137</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>138</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>139</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>140</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>141</v>
       </c>
-      <c r="O47" t="s">
-        <v>142</v>
-      </c>
       <c r="P47" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q47" t="s">
         <v>136</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>137</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>138</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>139</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>140</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>141</v>
       </c>
-      <c r="V47" t="s">
-        <v>142</v>
-      </c>
       <c r="W47" t="s">
+        <v>135</v>
+      </c>
+      <c r="X47" t="s">
         <v>136</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>137</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>138</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>139</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>140</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AC47" s="67" t="s">
         <v>141</v>
-      </c>
-      <c r="AC47" s="67" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.2">
@@ -10000,7 +9997,7 @@
     </row>
     <row r="69" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69">
         <f>AG70</f>
@@ -10223,7 +10220,7 @@
     </row>
     <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B71">
         <f>SUM(B49:B69)</f>
@@ -10340,7 +10337,7 @@
     </row>
     <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73">
         <f>B71/$A$75</f>
@@ -10455,55 +10452,55 @@
         <v>0.76887076741722205</v>
       </c>
       <c r="AG73" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH73" t="s">
         <v>165</v>
       </c>
-      <c r="AH73" t="s">
+      <c r="AI73" t="s">
         <v>166</v>
       </c>
-      <c r="AI73" t="s">
+      <c r="AJ73" t="s">
         <v>167</v>
       </c>
-      <c r="AJ73" t="s">
+      <c r="AK73" t="s">
         <v>168</v>
       </c>
-      <c r="AK73" t="s">
+      <c r="AL73" t="s">
         <v>169</v>
       </c>
-      <c r="AL73" t="s">
+      <c r="AM73" t="s">
         <v>170</v>
       </c>
-      <c r="AM73" t="s">
+      <c r="AN73" t="s">
         <v>171</v>
       </c>
-      <c r="AN73" t="s">
+      <c r="AO73" t="s">
         <v>172</v>
       </c>
-      <c r="AO73" t="s">
+      <c r="AP73" t="s">
         <v>173</v>
       </c>
-      <c r="AP73" t="s">
+      <c r="AQ73" t="s">
         <v>174</v>
       </c>
-      <c r="AQ73" t="s">
+      <c r="AR73" t="s">
         <v>175</v>
       </c>
-      <c r="AR73" t="s">
+      <c r="AS73" t="s">
         <v>176</v>
       </c>
-      <c r="AS73" t="s">
+      <c r="AT73" t="s">
         <v>177</v>
       </c>
-      <c r="AT73" t="s">
+      <c r="AU73" t="s">
         <v>178</v>
       </c>
-      <c r="AU73" t="s">
+      <c r="AV73" t="s">
         <v>179</v>
       </c>
-      <c r="AV73" t="s">
+      <c r="AW73" t="s">
         <v>180</v>
-      </c>
-      <c r="AW73" t="s">
-        <v>181</v>
       </c>
       <c r="AX73">
         <v>0</v>
@@ -10541,58 +10538,58 @@
     </row>
     <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG74" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH74" t="s">
         <v>182</v>
       </c>
-      <c r="AH74" t="s">
+      <c r="AI74" t="s">
         <v>183</v>
       </c>
-      <c r="AI74" t="s">
+      <c r="AJ74" t="s">
         <v>184</v>
       </c>
-      <c r="AJ74" t="s">
+      <c r="AK74" t="s">
         <v>185</v>
       </c>
-      <c r="AK74" t="s">
+      <c r="AL74" t="s">
         <v>186</v>
       </c>
-      <c r="AL74" t="s">
+      <c r="AM74" t="s">
         <v>187</v>
       </c>
-      <c r="AM74" t="s">
+      <c r="AN74" t="s">
         <v>188</v>
       </c>
-      <c r="AN74" t="s">
+      <c r="AO74" t="s">
         <v>189</v>
       </c>
-      <c r="AO74" t="s">
+      <c r="AP74" t="s">
         <v>190</v>
       </c>
-      <c r="AP74" t="s">
+      <c r="AQ74" t="s">
         <v>191</v>
       </c>
-      <c r="AQ74" t="s">
+      <c r="AR74" t="s">
         <v>192</v>
       </c>
-      <c r="AR74" t="s">
+      <c r="AS74" t="s">
         <v>193</v>
       </c>
-      <c r="AS74" t="s">
+      <c r="AT74" t="s">
         <v>194</v>
       </c>
-      <c r="AT74" t="s">
+      <c r="AU74" t="s">
         <v>195</v>
       </c>
-      <c r="AU74" t="s">
+      <c r="AV74" t="s">
         <v>196</v>
       </c>
-      <c r="AV74" t="s">
+      <c r="AW74" t="s">
         <v>197</v>
-      </c>
-      <c r="AW74" t="s">
-        <v>198</v>
       </c>
       <c r="AX74">
         <v>0</v>
@@ -10640,16 +10637,16 @@
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" t="s">
         <v>210</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>211</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" t="s">
         <v>212</v>
-      </c>
-      <c r="G78" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.2">
@@ -10671,29 +10668,29 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" t="s">
         <v>214</v>
       </c>
-      <c r="C83" t="s">
-        <v>215</v>
-      </c>
       <c r="E83" t="s">
+        <v>209</v>
+      </c>
+      <c r="F83" t="s">
         <v>210</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>211</v>
-      </c>
-      <c r="G83" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E85" s="72"/>
       <c r="F85" s="72"/>
@@ -10701,7 +10698,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E86" s="72"/>
       <c r="F86" s="72"/>
@@ -10714,23 +10711,23 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" t="s">
         <v>221</v>
-      </c>
-      <c r="C99" t="s">
-        <v>219</v>
-      </c>
-      <c r="E99" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
@@ -10741,7 +10738,7 @@
         <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H100">
         <f>$E$101</f>
@@ -10772,30 +10769,30 @@
         <v>0</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H101">
         <f>$E$101</f>
@@ -10826,30 +10823,30 @@
         <v>0</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H102">
         <f>$E$101</f>
@@ -10880,33 +10877,33 @@
         <v>0</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <f>$E$101</f>
@@ -10937,35 +10934,35 @@
         <v>0</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H105">
         <f>$E$104</f>
@@ -10996,25 +10993,25 @@
         <v>0</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
@@ -11047,25 +11044,25 @@
         <v>0</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
@@ -11098,25 +11095,25 @@
         <v>0</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
@@ -11149,41 +11146,41 @@
         <v>0</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" t="s">
+        <v>218</v>
+      </c>
+      <c r="E113" t="s">
         <v>221</v>
-      </c>
-      <c r="C113" t="s">
-        <v>219</v>
-      </c>
-      <c r="E113" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.2">
@@ -11194,7 +11191,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H114" s="73">
         <f>$E$115</f>
@@ -11225,30 +11222,30 @@
         <v>0</v>
       </c>
       <c r="P114" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q114" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R114" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S114" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T114" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U114" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V114" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H115" s="73">
         <f t="shared" ref="H115:H117" si="20">$E$115</f>
@@ -11279,30 +11276,30 @@
         <v>0</v>
       </c>
       <c r="P115" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q115" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R115" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S115" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T115" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U115" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V115" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H116" s="73">
         <f t="shared" si="20"/>
@@ -11333,33 +11330,33 @@
         <v>0</v>
       </c>
       <c r="P116" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q116" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R116" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S116" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T116" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U116" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V116" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H117" s="73">
         <f t="shared" si="20"/>
@@ -11390,30 +11387,30 @@
         <v>0</v>
       </c>
       <c r="P117" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q117" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R117" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S117" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T117" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U117" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V117" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H118" s="73"/>
       <c r="I118" s="73"/>
@@ -11432,7 +11429,7 @@
     </row>
     <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H119" s="73">
         <f>$E$118</f>
@@ -11463,25 +11460,25 @@
         <v>0</v>
       </c>
       <c r="P119" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q119" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R119" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S119" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T119" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U119" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V119" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:35" x14ac:dyDescent="0.2">
@@ -11514,25 +11511,25 @@
         <v>0</v>
       </c>
       <c r="P120" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q120" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R120" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S120" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T120" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U120" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V120" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:35" x14ac:dyDescent="0.2">
@@ -11565,25 +11562,25 @@
         <v>0</v>
       </c>
       <c r="P121" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q121" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R121" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S121" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T121" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U121" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V121" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:35" x14ac:dyDescent="0.2">
@@ -11616,25 +11613,25 @@
         <v>0</v>
       </c>
       <c r="P122" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q122" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R122" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S122" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T122" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U122" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V122" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:35" x14ac:dyDescent="0.2">
@@ -11725,7 +11722,7 @@
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H125">
         <f>H100+H114</f>
@@ -11956,18 +11953,18 @@
     </row>
     <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" t="s">
+        <v>218</v>
+      </c>
+      <c r="E131" t="s">
         <v>221</v>
-      </c>
-      <c r="C131" t="s">
-        <v>219</v>
-      </c>
-      <c r="E131" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.2">
@@ -11978,7 +11975,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H132">
         <f>$E$133</f>
@@ -12011,7 +12008,7 @@
     </row>
     <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B133">
         <v>30</v>
@@ -12054,7 +12051,7 @@
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B134">
         <v>24.5</v>
@@ -12098,10 +12095,10 @@
     </row>
     <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <f t="shared" si="31"/>
@@ -12134,7 +12131,7 @@
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B136">
         <v>5.5</v>
@@ -12149,7 +12146,7 @@
     </row>
     <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -12369,7 +12366,7 @@
     </row>
     <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H143">
         <f>H118+H132</f>
@@ -12610,7 +12607,7 @@
   <dimension ref="A1:BH144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34:AA38"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -12620,7 +12617,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>13</v>
@@ -12945,7 +12942,7 @@
     </row>
     <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="56">
         <v>7.4249605055292253E-2</v>
@@ -13118,7 +13115,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -13144,10 +13141,10 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="W33" t="s">
+        <v>132</v>
+      </c>
+      <c r="X33" t="s">
         <v>133</v>
-      </c>
-      <c r="X33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.2">
@@ -13532,7 +13529,7 @@
     </row>
     <row r="38" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" si="2"/>
@@ -13716,7 +13713,7 @@
     <row r="43" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="64">
         <f>SUM(B34:B42)</f>
@@ -13801,88 +13798,88 @@
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" t="s">
         <v>136</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>137</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>138</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>139</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>140</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>141</v>
       </c>
-      <c r="H47" t="s">
-        <v>142</v>
-      </c>
       <c r="I47" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" t="s">
         <v>136</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>137</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>138</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>139</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>140</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>141</v>
       </c>
-      <c r="O47" t="s">
-        <v>142</v>
-      </c>
       <c r="P47" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q47" t="s">
         <v>136</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>137</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>138</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>139</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>140</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>141</v>
       </c>
-      <c r="V47" t="s">
-        <v>142</v>
-      </c>
       <c r="W47" t="s">
+        <v>135</v>
+      </c>
+      <c r="X47" t="s">
         <v>136</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>137</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>138</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>139</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>140</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AC47" s="67" t="s">
         <v>141</v>
-      </c>
-      <c r="AC47" s="67" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.2">
@@ -15703,7 +15700,7 @@
     </row>
     <row r="69" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69">
         <f>AG70</f>
@@ -15926,7 +15923,7 @@
     </row>
     <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B71">
         <f>SUM(B49:B69)</f>
@@ -16043,7 +16040,7 @@
     </row>
     <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73">
         <f>B71/$A$75</f>
@@ -16160,7 +16157,7 @@
     </row>
     <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.2">
@@ -16175,16 +16172,16 @@
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" t="s">
         <v>210</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>211</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" t="s">
         <v>212</v>
-      </c>
-      <c r="G78" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.2">
@@ -16206,24 +16203,24 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" t="s">
         <v>214</v>
       </c>
-      <c r="C83" t="s">
-        <v>215</v>
-      </c>
       <c r="E83" t="s">
+        <v>209</v>
+      </c>
+      <c r="F83" t="s">
         <v>210</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>211</v>
-      </c>
-      <c r="G83" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E84" s="72"/>
       <c r="F84" s="72"/>
@@ -16231,7 +16228,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E85" s="72"/>
       <c r="F85" s="72"/>
@@ -16239,7 +16236,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E86" s="72"/>
       <c r="F86" s="72"/>
@@ -16247,23 +16244,23 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" t="s">
         <v>221</v>
-      </c>
-      <c r="C99" t="s">
-        <v>219</v>
-      </c>
-      <c r="E99" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
@@ -16274,7 +16271,7 @@
         <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H100">
         <f>$E$101</f>
@@ -16305,30 +16302,30 @@
         <v>0</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H101">
         <f>$E$101</f>
@@ -16359,30 +16356,30 @@
         <v>0</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H102">
         <f>$E$101</f>
@@ -16413,33 +16410,33 @@
         <v>0</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <f>$E$101</f>
@@ -16470,35 +16467,35 @@
         <v>0</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H105">
         <f>$E$104</f>
@@ -16529,25 +16526,25 @@
         <v>0</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
@@ -16580,25 +16577,25 @@
         <v>0</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
@@ -16631,25 +16628,25 @@
         <v>0</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
@@ -16682,41 +16679,41 @@
         <v>0</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" t="s">
+        <v>218</v>
+      </c>
+      <c r="E113" t="s">
         <v>221</v>
-      </c>
-      <c r="C113" t="s">
-        <v>219</v>
-      </c>
-      <c r="E113" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.2">
@@ -16727,7 +16724,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H114" s="73">
         <f>$E$115</f>
@@ -16758,30 +16755,30 @@
         <v>0</v>
       </c>
       <c r="P114" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q114" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R114" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S114" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T114" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U114" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V114" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H115" s="73">
         <f t="shared" ref="H115:H117" si="20">$E$115</f>
@@ -16812,30 +16809,30 @@
         <v>0</v>
       </c>
       <c r="P115" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q115" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R115" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S115" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T115" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U115" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V115" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H116" s="73">
         <f t="shared" si="20"/>
@@ -16866,33 +16863,33 @@
         <v>0</v>
       </c>
       <c r="P116" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q116" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R116" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S116" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T116" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U116" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V116" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H117" s="73">
         <f t="shared" si="20"/>
@@ -16923,30 +16920,30 @@
         <v>0</v>
       </c>
       <c r="P117" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q117" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R117" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S117" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T117" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U117" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V117" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H118" s="73"/>
       <c r="I118" s="73"/>
@@ -16965,7 +16962,7 @@
     </row>
     <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H119" s="73">
         <f>$E$118</f>
@@ -16996,25 +16993,25 @@
         <v>0</v>
       </c>
       <c r="P119" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q119" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R119" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S119" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T119" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U119" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V119" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:35" x14ac:dyDescent="0.2">
@@ -17047,25 +17044,25 @@
         <v>0</v>
       </c>
       <c r="P120" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q120" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R120" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S120" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T120" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U120" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V120" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:35" x14ac:dyDescent="0.2">
@@ -17098,25 +17095,25 @@
         <v>0</v>
       </c>
       <c r="P121" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q121" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R121" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S121" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T121" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U121" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V121" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:35" x14ac:dyDescent="0.2">
@@ -17149,25 +17146,25 @@
         <v>0</v>
       </c>
       <c r="P122" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q122" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R122" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S122" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T122" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U122" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V122" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:35" x14ac:dyDescent="0.2">
@@ -17258,7 +17255,7 @@
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H125">
         <f>H100+H114</f>
@@ -17489,18 +17486,18 @@
     </row>
     <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" t="s">
+        <v>218</v>
+      </c>
+      <c r="E131" t="s">
         <v>221</v>
-      </c>
-      <c r="C131" t="s">
-        <v>219</v>
-      </c>
-      <c r="E131" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.2">
@@ -17511,7 +17508,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H132">
         <f>$E$133</f>
@@ -17544,7 +17541,7 @@
     </row>
     <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H133">
         <f t="shared" ref="H133:H135" si="32">$E$133</f>
@@ -17577,7 +17574,7 @@
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H134">
         <f t="shared" si="32"/>
@@ -17610,10 +17607,10 @@
     </row>
     <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <f t="shared" si="32"/>
@@ -17646,12 +17643,12 @@
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H137">
         <f>$E$136</f>
@@ -17860,7 +17857,7 @@
     </row>
     <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H143">
         <f>H118+H132</f>

--- a/input_output/model_input_5groups.xlsx
+++ b/input_output/model_input_5groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/MasterV22/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ECC342-525C-7348-8AD3-4F70C79F1D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D84FC49-90EE-9240-8CE2-73CC1D467F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12680" yWindow="500" windowWidth="21720" windowHeight="19360" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="16000" yWindow="3500" windowWidth="21720" windowHeight="19260" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="236">
   <si>
     <t>Wards</t>
   </si>
@@ -741,6 +741,12 @@
   </si>
   <si>
     <t>3  groups</t>
+  </si>
+  <si>
+    <t>fra kluster</t>
+  </si>
+  <si>
+    <t>etter tuning: *0.52</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
-  <dimension ref="A1:DG61"/>
+  <dimension ref="A1:ER61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="CG27" sqref="CG27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1481,7 +1487,7 @@
     <col min="39" max="39" width="11.1640625" customWidth="1"/>
     <col min="40" max="40" width="12.6640625" customWidth="1"/>
     <col min="41" max="41" width="13.1640625" customWidth="1"/>
-    <col min="42" max="42" width="3.5" customWidth="1"/>
+    <col min="42" max="42" width="4.5" customWidth="1"/>
     <col min="43" max="43" width="8.83203125" customWidth="1"/>
     <col min="44" max="71" width="3.5" customWidth="1"/>
     <col min="72" max="72" width="10.83203125" customWidth="1"/>
@@ -1490,7 +1496,7 @@
     <col min="106" max="139" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
         <v>125</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:148" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="30">
         <v>0.1</v>
@@ -1815,88 +1821,88 @@
         <v>33</v>
       </c>
       <c r="I2" s="27">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="J2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="K2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="L2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="M2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="O2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="Q2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="R2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="S2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="T2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="U2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="X2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="Y2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="Z2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="AA2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AB2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AD2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="AE2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="AF2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="AG2" s="28">
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="AH2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AI2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AJ2" s="28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AK2" s="47">
         <v>20</v>
@@ -2103,8 +2109,14 @@
       <c r="DE2" s="3"/>
       <c r="DF2" s="3"/>
       <c r="DG2" s="3"/>
-    </row>
-    <row r="3" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="EK2" t="s">
+        <v>235</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:148" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -2116,88 +2128,88 @@
         <v>40</v>
       </c>
       <c r="I3" s="14">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="J3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="K3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="L3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="M3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="N3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="O3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="P3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="Q3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="R3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="S3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="T3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="U3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="V3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="W3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="X3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="Y3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="Z3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="AA3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AB3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AC3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AD3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="AE3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="AF3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="AG3" s="15">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="AH3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AI3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AJ3" s="15">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AK3" s="48">
         <v>2</v>
@@ -2404,8 +2416,26 @@
       <c r="DE3" s="3"/>
       <c r="DF3" s="3"/>
       <c r="DG3" s="3"/>
-    </row>
-    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="EK3" s="59">
+        <f>0.52*EL3</f>
+        <v>32.24</v>
+      </c>
+      <c r="EL3" s="59">
+        <v>62</v>
+      </c>
+      <c r="EN3">
+        <f>EL3</f>
+        <v>62</v>
+      </c>
+      <c r="EO3">
+        <v>62</v>
+      </c>
+      <c r="EP3">
+        <f t="shared" ref="EP3:EP7" si="0">EO3-EL3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -2451,7 +2481,8 @@
         <v>223.05</v>
       </c>
       <c r="AO4" s="60">
-        <v>134</v>
+        <f>134-76</f>
+        <v>58</v>
       </c>
       <c r="AP4" s="59"/>
       <c r="AQ4" s="25" t="s">
@@ -2581,8 +2612,30 @@
       <c r="DE4" s="3"/>
       <c r="DF4" s="3"/>
       <c r="DG4" s="3"/>
-    </row>
-    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="EK4" s="59">
+        <f t="shared" ref="EK4:EK7" si="1">0.52*EL4</f>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="EL4" s="59">
+        <v>44</v>
+      </c>
+      <c r="EN4">
+        <f>EL4</f>
+        <v>44</v>
+      </c>
+      <c r="EO4">
+        <v>50</v>
+      </c>
+      <c r="EP4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="ER4">
+        <f>EO4/EN4</f>
+        <v>1.1363636363636365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2758,8 +2811,26 @@
       <c r="DE5" s="3"/>
       <c r="DF5" s="3"/>
       <c r="DG5" s="3"/>
-    </row>
-    <row r="6" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="EK5" s="59">
+        <f t="shared" si="1"/>
+        <v>69.680000000000007</v>
+      </c>
+      <c r="EL5" s="59">
+        <v>134</v>
+      </c>
+      <c r="EO5">
+        <v>58</v>
+      </c>
+      <c r="EP5">
+        <f>EO5-EL5</f>
+        <v>-76</v>
+      </c>
+      <c r="ER5">
+        <f>76/134</f>
+        <v>0.56716417910447758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:148" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2935,8 +3006,22 @@
       <c r="DE6" s="3"/>
       <c r="DF6" s="3"/>
       <c r="DG6" s="3"/>
-    </row>
-    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="EK6" s="59">
+        <f t="shared" si="1"/>
+        <v>2.08</v>
+      </c>
+      <c r="EL6" s="59">
+        <v>4</v>
+      </c>
+      <c r="EO6">
+        <v>4</v>
+      </c>
+      <c r="EP6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -3042,8 +3127,22 @@
       <c r="DE7" s="3"/>
       <c r="DF7" s="3"/>
       <c r="DG7" s="3"/>
-    </row>
-    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="EK7" s="59">
+        <f t="shared" si="1"/>
+        <v>29.12</v>
+      </c>
+      <c r="EL7" s="59">
+        <v>56</v>
+      </c>
+      <c r="EO7">
+        <v>56</v>
+      </c>
+      <c r="EP7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3123,7 +3222,7 @@
       <c r="BX8" s="2"/>
       <c r="CD8" s="3"/>
     </row>
-    <row r="9" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -3203,7 +3302,7 @@
       <c r="BX9" s="2"/>
       <c r="CD9" s="3"/>
     </row>
-    <row r="10" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -3283,7 +3382,7 @@
       <c r="BX10" s="2"/>
       <c r="CD10" s="3"/>
     </row>
-    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -3323,8 +3422,6 @@
       <c r="AK11" s="59"/>
       <c r="AL11" s="59"/>
       <c r="AM11" s="59"/>
-      <c r="AN11" s="59"/>
-      <c r="AO11" s="59"/>
       <c r="AP11" s="59"/>
       <c r="AQ11" s="59"/>
       <c r="AR11" s="59"/>
@@ -3366,7 +3463,7 @@
       <c r="BX11" s="2"/>
       <c r="CD11" s="3"/>
     </row>
-    <row r="12" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -3406,8 +3503,6 @@
       <c r="AK12" s="59"/>
       <c r="AL12" s="59"/>
       <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
       <c r="AP12" s="59"/>
       <c r="AQ12" s="59"/>
       <c r="AR12" s="59"/>
@@ -3449,7 +3544,7 @@
       <c r="BX12" s="2"/>
       <c r="CD12" s="3"/>
     </row>
-    <row r="13" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -3489,8 +3584,6 @@
       <c r="AK13" s="59"/>
       <c r="AL13" s="59"/>
       <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
       <c r="AP13" s="59"/>
       <c r="AQ13" s="59"/>
       <c r="AR13" s="59"/>
@@ -3532,7 +3625,7 @@
       <c r="BX13" s="2"/>
       <c r="CD13" s="3"/>
     </row>
-    <row r="14" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -3572,8 +3665,6 @@
       <c r="AK14" s="59"/>
       <c r="AL14" s="59"/>
       <c r="AM14" s="59"/>
-      <c r="AN14" s="59"/>
-      <c r="AO14" s="59"/>
       <c r="AP14" s="59"/>
       <c r="AQ14" s="59"/>
       <c r="AR14" s="59"/>
@@ -3615,7 +3706,7 @@
       <c r="BX14" s="2"/>
       <c r="CD14" s="3"/>
     </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -3655,8 +3746,6 @@
       <c r="AK15" s="59"/>
       <c r="AL15" s="59"/>
       <c r="AM15" s="59"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="59"/>
       <c r="AP15" s="59"/>
       <c r="AQ15" s="59"/>
       <c r="AR15" s="59"/>
@@ -3698,7 +3787,7 @@
       <c r="BX15" s="2"/>
       <c r="CD15" s="3"/>
     </row>
-    <row r="16" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -4889,7 +4978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AC6107-1D68-C743-A8E7-FD6A8A893508}">
   <dimension ref="B1:AS8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -7722,7 +7811,7 @@
         <v>134</v>
       </c>
       <c r="X36">
-        <f t="shared" ref="X36:X38" si="2">W36/20</f>
+        <f t="shared" ref="X36:X37" si="2">W36/20</f>
         <v>6.7</v>
       </c>
       <c r="AA36" s="60">
@@ -8021,7 +8110,7 @@
         <v>6.4530600164999496</v>
       </c>
       <c r="D44" s="65">
-        <f t="shared" ref="C44:U44" si="3">SUM(D34:D42)</f>
+        <f t="shared" ref="D44:T44" si="3">SUM(D34:D42)</f>
         <v>4.4375383447477112</v>
       </c>
       <c r="E44" s="65">
@@ -18093,6 +18182,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -18264,22 +18368,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18295,28 +18408,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input_output/model_input_5groups.xlsx
+++ b/input_output/model_input_5groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/MasterV22/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D84FC49-90EE-9240-8CE2-73CC1D467F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62F5594-AC6C-904D-A462-E1B287D92203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16000" yWindow="3500" windowWidth="21720" windowHeight="19260" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="5860" yWindow="1640" windowWidth="21720" windowHeight="19260" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -1474,7 +1474,7 @@
   <dimension ref="A1:ER61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1821,88 +1821,88 @@
         <v>33</v>
       </c>
       <c r="I2" s="27">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="J2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="K2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="L2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="M2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="P2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="R2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="S2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="T2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="U2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="V2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="W2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="X2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="28">
-        <v>50.5</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AI2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AJ2" s="28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AK2" s="47">
         <v>20</v>
@@ -2128,88 +2128,88 @@
         <v>40</v>
       </c>
       <c r="I3" s="14">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="J3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="K3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="L3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="M3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="N3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="O3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="P3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="R3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="S3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="T3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="U3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="V3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="W3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="X3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="AE3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="AF3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="AG3" s="15">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="AH3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AI3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AJ3" s="15">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="48">
         <v>2</v>
@@ -18182,18 +18182,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18369,14 +18369,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -18388,6 +18380,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
